--- a/US/data/DOL/UIWC/MPFD.xlsx
+++ b/US/data/DOL/UIWC/MPFD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G615"/>
+  <dimension ref="A1:G617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,7 +2414,7 @@
         <v>210662</v>
       </c>
       <c r="D86" t="n">
-        <v>904873</v>
+        <v>904872</v>
       </c>
       <c r="E86" t="n">
         <v>32.33</v>
@@ -3264,7 +3264,7 @@
         <v>259063</v>
       </c>
       <c r="D120" t="n">
-        <v>935372</v>
+        <v>935342</v>
       </c>
       <c r="E120" t="n">
         <v>32.75</v>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>823691</v>
+        <v>823712</v>
       </c>
       <c r="C128" t="n">
         <v>246909</v>
@@ -4608,13 +4608,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>590497</v>
+        <v>590513</v>
       </c>
       <c r="C174" t="n">
         <v>232183</v>
       </c>
       <c r="D174" t="n">
-        <v>1209168</v>
+        <v>1209154</v>
       </c>
       <c r="E174" t="n">
         <v>32.49</v>
@@ -4733,13 +4733,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>573535</v>
+        <v>573542</v>
       </c>
       <c r="C179" t="n">
-        <v>207673</v>
+        <v>207674</v>
       </c>
       <c r="D179" t="n">
-        <v>1073037</v>
+        <v>1073048</v>
       </c>
       <c r="E179" t="n">
         <v>31.29</v>
@@ -4936,7 +4936,7 @@
         <v>525103</v>
       </c>
       <c r="C187" t="n">
-        <v>214628</v>
+        <v>214630</v>
       </c>
       <c r="D187" t="n">
         <v>1178991</v>
@@ -15608,13 +15608,13 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>526769</v>
+        <v>528433</v>
       </c>
       <c r="C614" t="n">
-        <v>177875</v>
+        <v>177871</v>
       </c>
       <c r="D614" t="n">
-        <v>2493510</v>
+        <v>2630921</v>
       </c>
       <c r="E614" t="n">
         <v>40.19</v>
@@ -15623,7 +15623,7 @@
         <v>17.29</v>
       </c>
       <c r="G614" t="n">
-        <v>352.67</v>
+        <v>352.69</v>
       </c>
     </row>
     <row r="615">
@@ -15633,13 +15633,13 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>390284</v>
+        <v>391606</v>
       </c>
       <c r="C615" t="n">
-        <v>139374</v>
+        <v>139258</v>
       </c>
       <c r="D615" t="n">
-        <v>2405341</v>
+        <v>2411700</v>
       </c>
       <c r="E615" t="n">
         <v>38.59</v>
@@ -15648,7 +15648,57 @@
         <v>16.84</v>
       </c>
       <c r="G615" t="n">
-        <v>355.79</v>
+        <v>355.83</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>03/31/2022</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>369742</v>
+      </c>
+      <c r="C616" t="n">
+        <v>168558</v>
+      </c>
+      <c r="D616" t="n">
+        <v>2536413</v>
+      </c>
+      <c r="E616" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="F616" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="G616" t="n">
+        <v>359.74</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>04/30/2022</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>304514</v>
+      </c>
+      <c r="C617" t="n">
+        <v>125435</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1882608</v>
+      </c>
+      <c r="E617" t="n">
+        <v>33.89</v>
+      </c>
+      <c r="F617" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="G617" t="n">
+        <v>363.39</v>
       </c>
     </row>
   </sheetData>

--- a/US/data/DOL/UIWC/MPFD.xlsx
+++ b/US/data/DOL/UIWC/MPFD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G617"/>
+  <dimension ref="A1:G618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3264,7 +3264,7 @@
         <v>259063</v>
       </c>
       <c r="D120" t="n">
-        <v>935342</v>
+        <v>935347</v>
       </c>
       <c r="E120" t="n">
         <v>32.75</v>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>823712</v>
+        <v>823721</v>
       </c>
       <c r="C128" t="n">
         <v>246909</v>
@@ -3867,7 +3867,7 @@
         <v>1820019</v>
       </c>
       <c r="E144" t="n">
-        <v>37.94</v>
+        <v>37.93</v>
       </c>
       <c r="F144" t="n">
         <v>15.57</v>
@@ -4608,13 +4608,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>590513</v>
+        <v>590378</v>
       </c>
       <c r="C174" t="n">
         <v>232183</v>
       </c>
       <c r="D174" t="n">
-        <v>1209154</v>
+        <v>1209084</v>
       </c>
       <c r="E174" t="n">
         <v>32.49</v>
@@ -4673,7 +4673,7 @@
         <v>14.01</v>
       </c>
       <c r="G176" t="n">
-        <v>125.89</v>
+        <v>125.9</v>
       </c>
     </row>
     <row r="177">
@@ -4733,13 +4733,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>573542</v>
+        <v>573544</v>
       </c>
       <c r="C179" t="n">
         <v>207674</v>
       </c>
       <c r="D179" t="n">
-        <v>1073048</v>
+        <v>1073051</v>
       </c>
       <c r="E179" t="n">
         <v>31.29</v>
@@ -4986,7 +4986,7 @@
         <v>649662</v>
       </c>
       <c r="C189" t="n">
-        <v>210444</v>
+        <v>210443</v>
       </c>
       <c r="D189" t="n">
         <v>1166815</v>
@@ -15558,13 +15558,13 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>328640</v>
+        <v>328617</v>
       </c>
       <c r="C612" t="n">
-        <v>211306</v>
+        <v>211223</v>
       </c>
       <c r="D612" t="n">
-        <v>2223065</v>
+        <v>2223070</v>
       </c>
       <c r="E612" t="n">
         <v>39.27</v>
@@ -15583,22 +15583,22 @@
         </is>
       </c>
       <c r="B613" t="n">
-        <v>413290</v>
+        <v>413887</v>
       </c>
       <c r="C613" t="n">
-        <v>182257</v>
+        <v>182251</v>
       </c>
       <c r="D613" t="n">
-        <v>2186017</v>
+        <v>2192414</v>
       </c>
       <c r="E613" t="n">
         <v>40.32</v>
       </c>
       <c r="F613" t="n">
-        <v>17.8</v>
+        <v>17.81</v>
       </c>
       <c r="G613" t="n">
-        <v>349.8</v>
+        <v>349.81</v>
       </c>
     </row>
     <row r="614">
@@ -15614,7 +15614,7 @@
         <v>177871</v>
       </c>
       <c r="D614" t="n">
-        <v>2630921</v>
+        <v>2634737</v>
       </c>
       <c r="E614" t="n">
         <v>40.19</v>
@@ -15623,7 +15623,7 @@
         <v>17.29</v>
       </c>
       <c r="G614" t="n">
-        <v>352.69</v>
+        <v>352.7</v>
       </c>
     </row>
     <row r="615">
@@ -15639,7 +15639,7 @@
         <v>139258</v>
       </c>
       <c r="D615" t="n">
-        <v>2411700</v>
+        <v>2415448</v>
       </c>
       <c r="E615" t="n">
         <v>38.59</v>
@@ -15648,7 +15648,7 @@
         <v>16.84</v>
       </c>
       <c r="G615" t="n">
-        <v>355.83</v>
+        <v>355.84</v>
       </c>
     </row>
     <row r="616">
@@ -15664,7 +15664,7 @@
         <v>168558</v>
       </c>
       <c r="D616" t="n">
-        <v>2536413</v>
+        <v>2541590</v>
       </c>
       <c r="E616" t="n">
         <v>35.52</v>
@@ -15673,7 +15673,7 @@
         <v>16.53</v>
       </c>
       <c r="G616" t="n">
-        <v>359.74</v>
+        <v>359.75</v>
       </c>
     </row>
     <row r="617">
@@ -15689,16 +15689,41 @@
         <v>125435</v>
       </c>
       <c r="D617" t="n">
-        <v>1882608</v>
+        <v>1887964</v>
       </c>
       <c r="E617" t="n">
         <v>33.89</v>
       </c>
       <c r="F617" t="n">
-        <v>17.4</v>
+        <v>17.41</v>
       </c>
       <c r="G617" t="n">
-        <v>363.39</v>
+        <v>363.4</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>05/31/2022</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>312842</v>
+      </c>
+      <c r="C618" t="n">
+        <v>125662</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1815690</v>
+      </c>
+      <c r="E618" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F618" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="G618" t="n">
+        <v>367.86</v>
       </c>
     </row>
   </sheetData>
